--- a/Data/Completing college/EducationReport(16).xlsx
+++ b/Data/Completing college/EducationReport(16).xlsx
@@ -323,2589 +323,3166 @@
     <row r="4" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">05000</t>
+          <t xml:space="preserve">18000</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Arkansas</t>
+          <t xml:space="preserve">Indiana</t>
         </is>
       </c>
       <c s="6" t="str" r="C4"/>
       <c s="7" r="D4">
-        <v>0.600606896186521</v>
+        <v>0.0832634846749252</v>
       </c>
       <c s="7" r="E4">
-        <v>0.445463302416092</v>
+        <v>0.125197240105467</v>
       </c>
       <c s="7" r="F4">
-        <v>0.336517728837349</v>
+        <v>0.155594116011887</v>
       </c>
       <c s="7" r="G4">
-        <v>0.246909080406654</v>
+        <v>0.19408143985608</v>
       </c>
       <c s="3" t="str" r="H4"/>
       <c s="7" r="I4">
-        <v>0.166937266760331</v>
+        <v>0.229835725388956</v>
       </c>
       <c s="7" r="J4">
-        <v>0.123050626085322</v>
+        <v>0.278435773104767</v>
       </c>
     </row>
     <row r="5" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">05001</t>
+          <t xml:space="preserve">18001</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Arkansas, AR        </t>
+          <t xml:space="preserve">Adams, IN        </t>
         </is>
       </c>
       <c s="8" r="C5">
         <v>6</v>
       </c>
       <c s="7" r="D5">
-        <v>0.627937743190661</v>
+        <v>0.041922216610145</v>
       </c>
       <c s="7" r="E5">
-        <v>0.511881120317743</v>
+        <v>0.0854440226523119</v>
       </c>
       <c s="7" r="F5">
-        <v>0.388718970054769</v>
+        <v>0.10684916386114</v>
       </c>
       <c s="7" r="G5">
-        <v>0.27584965437788</v>
+        <v>0.106657406488739</v>
       </c>
       <c s="3" t="str" r="H5"/>
       <c s="7" r="I5">
-        <v>0.175581218659778</v>
+        <v>0.145380369570434</v>
       </c>
       <c s="7" r="J5">
-        <v>0.133133133133133</v>
+        <v>0.144229417553067</v>
       </c>
     </row>
     <row r="6" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">05003</t>
+          <t xml:space="preserve">18003</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Ashley, AR        </t>
+          <t xml:space="preserve">Allen, IN        </t>
         </is>
       </c>
       <c s="8" r="C6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c s="7" r="D6">
-        <v>0.601737540009145</v>
+        <v>0.101818358547813</v>
       </c>
       <c s="7" r="E6">
-        <v>0.477424915467745</v>
+        <v>0.149823606127809</v>
       </c>
       <c s="7" r="F6">
-        <v>0.371764551307318</v>
+        <v>0.189879482156545</v>
       </c>
       <c s="7" r="G6">
-        <v>0.275092227451978</v>
+        <v>0.22700688320584</v>
       </c>
       <c s="3" t="str" r="H6"/>
       <c s="7" r="I6">
-        <v>0.172196214125789</v>
+        <v>0.263886071148197</v>
       </c>
       <c s="7" r="J6">
-        <v>0.148236522257848</v>
+        <v>0.298884376042006</v>
       </c>
     </row>
     <row r="7" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">05005</t>
+          <t xml:space="preserve">18005</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Baxter, AR        </t>
+          <t xml:space="preserve">Bartholomew, IN        </t>
         </is>
       </c>
       <c s="8" r="C7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c s="7" r="D7">
-        <v>0.539056531703591</v>
+        <v>0.10611731083288</v>
       </c>
       <c s="7" r="E7">
-        <v>0.42698696652185</v>
+        <v>0.147898577744633</v>
       </c>
       <c s="7" r="F7">
-        <v>0.320621468926554</v>
+        <v>0.168834004561114</v>
       </c>
       <c s="7" r="G7">
-        <v>0.224593742420568</v>
+        <v>0.220318835042136</v>
       </c>
       <c s="3" t="str" r="H7"/>
       <c s="7" r="I7">
-        <v>0.131596526386106</v>
+        <v>0.265902988390287</v>
       </c>
       <c s="7" r="J7">
-        <v>0.11345838069976</v>
+        <v>0.352181168912735</v>
       </c>
     </row>
     <row r="8" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">05007</t>
+          <t xml:space="preserve">18007</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Benton, AR        </t>
+          <t xml:space="preserve">Benton, IN        </t>
         </is>
       </c>
       <c s="8" r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D8">
-        <v>0.565771881106654</v>
+        <v>0.065339038841343</v>
       </c>
       <c s="7" r="E8">
-        <v>0.382462106289008</v>
+        <v>0.0942866578599736</v>
       </c>
       <c s="7" r="F8">
-        <v>0.252261306532663</v>
+        <v>0.0915248637039485</v>
       </c>
       <c s="7" r="G8">
-        <v>0.19575405285812</v>
+        <v>0.130074699577785</v>
       </c>
       <c s="3" t="str" r="H8"/>
       <c s="7" r="I8">
-        <v>0.143270234434508</v>
+        <v>0.148516520566419</v>
       </c>
       <c s="7" r="J8">
-        <v>0.102859798775153</v>
+        <v>0.175175004268397</v>
       </c>
     </row>
     <row r="9" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">05009</t>
+          <t xml:space="preserve">18009</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">Boone, AR        </t>
+          <t xml:space="preserve">Blackford, IN        </t>
         </is>
       </c>
       <c s="8" r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="7" r="D9">
-        <v>0.560593075077134</v>
+        <v>0.0571131879543094</v>
       </c>
       <c s="7" r="E9">
-        <v>0.403393776035285</v>
+        <v>0.0714517700552127</v>
       </c>
       <c s="7" r="F9">
-        <v>0.323527844391154</v>
+        <v>0.0894265039421104</v>
       </c>
       <c s="7" r="G9">
-        <v>0.231642826181188</v>
+        <v>0.10261780104712</v>
       </c>
       <c s="3" t="str" r="H9"/>
       <c s="7" r="I9">
-        <v>0.146213895394223</v>
+        <v>0.100271002710027</v>
       </c>
       <c s="7" r="J9">
-        <v>0.108881754949171</v>
+        <v>0.142490072412988</v>
       </c>
     </row>
     <row r="10" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">05011</t>
+          <t xml:space="preserve">18011</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">Bradley, AR        </t>
+          <t xml:space="preserve">Boone, IN        </t>
         </is>
       </c>
       <c s="8" r="C10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c s="7" r="D10">
-        <v>0.674449993251451</v>
+        <v>0.0714863148169535</v>
       </c>
       <c s="7" r="E10">
-        <v>0.534198113207547</v>
+        <v>0.156955234924158</v>
       </c>
       <c s="7" r="F10">
-        <v>0.438623722674945</v>
+        <v>0.222075055187638</v>
       </c>
       <c s="7" r="G10">
-        <v>0.333891013384321</v>
+        <v>0.276424387646432</v>
       </c>
       <c s="3" t="str" r="H10"/>
       <c s="7" r="I10">
-        <v>0.255184851217313</v>
+        <v>0.395423340961098</v>
       </c>
       <c s="7" r="J10">
-        <v>0.158736725968832</v>
+        <v>0.494141762865466</v>
       </c>
     </row>
     <row r="11" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">05013</t>
+          <t xml:space="preserve">18013</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">Calhoun, AR        </t>
+          <t xml:space="preserve">Brown, IN        </t>
         </is>
       </c>
       <c s="8" r="C11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c s="7" r="D11">
-        <v>0.686923321667197</v>
+        <v>0.0838974358974359</v>
       </c>
       <c s="7" r="E11">
-        <v>0.526651860077735</v>
+        <v>0.143125167515411</v>
       </c>
       <c s="7" r="F11">
-        <v>0.36657824933687</v>
+        <v>0.152155625657203</v>
       </c>
       <c s="7" r="G11">
-        <v>0.312596006144393</v>
+        <v>0.184520417853751</v>
       </c>
       <c s="3" t="str" r="H11"/>
       <c s="7" r="I11">
-        <v>0.210968249803201</v>
+        <v>0.226224783861671</v>
       </c>
       <c s="7" r="J11">
-        <v>0.157940663176265</v>
+        <v>0.276886712814452</v>
       </c>
     </row>
     <row r="12" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">05015</t>
+          <t xml:space="preserve">18015</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">Carroll, AR        </t>
+          <t xml:space="preserve">Carroll, IN        </t>
         </is>
       </c>
       <c s="8" r="C12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c s="7" r="D12">
-        <v>0.598423194303154</v>
+        <v>0.0600995024875622</v>
       </c>
       <c s="7" r="E12">
-        <v>0.429062529034656</v>
+        <v>0.0810167474283771</v>
       </c>
       <c s="7" r="F12">
-        <v>0.31645369932166</v>
+        <v>0.0999918307327833</v>
       </c>
       <c s="7" r="G12">
-        <v>0.282268844075086</v>
+        <v>0.12940822618242</v>
       </c>
       <c s="3" t="str" r="H12"/>
       <c s="7" r="I12">
-        <v>0.18825183565068</v>
+        <v>0.159693318729463</v>
       </c>
       <c s="7" r="J12">
-        <v>0.147910290502233</v>
+        <v>0.146801916032685</v>
       </c>
     </row>
     <row r="13" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">05017</t>
+          <t xml:space="preserve">18017</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">Chicot, AR        </t>
+          <t xml:space="preserve">Cass, IN        </t>
         </is>
       </c>
       <c s="8" r="C13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c s="7" r="D13">
-        <v>0.723331916702082</v>
+        <v>0.0510641913420281</v>
       </c>
       <c s="7" r="E13">
-        <v>0.589068193649141</v>
+        <v>0.088899823676549</v>
       </c>
       <c s="7" r="F13">
-        <v>0.487928432851908</v>
+        <v>0.0897981928909764</v>
       </c>
       <c s="7" r="G13">
-        <v>0.357757669388656</v>
+        <v>0.120125621565035</v>
       </c>
       <c s="3" t="str" r="H13"/>
       <c s="7" r="I13">
-        <v>0.274575430767324</v>
+        <v>0.139703319261009</v>
       </c>
       <c s="7" r="J13">
-        <v>0.216052853528254</v>
+        <v>0.136173799762443</v>
       </c>
     </row>
     <row r="14" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">05019</t>
+          <t xml:space="preserve">18019</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">Clark, AR        </t>
+          <t xml:space="preserve">Clark, IN        </t>
         </is>
       </c>
       <c s="8" r="C14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c s="7" r="D14">
-        <v>0.583739987109843</v>
+        <v>0.056140350877193</v>
       </c>
       <c s="7" r="E14">
-        <v>0.440767089390659</v>
+        <v>0.092103190232375</v>
       </c>
       <c s="7" r="F14">
-        <v>0.350956657555642</v>
+        <v>0.112006319115324</v>
       </c>
       <c s="7" r="G14">
-        <v>0.247251547142337</v>
+        <v>0.143487241609592</v>
       </c>
       <c s="3" t="str" r="H14"/>
       <c s="7" r="I14">
-        <v>0.148410157122645</v>
+        <v>0.185965005796831</v>
       </c>
       <c s="7" r="J14">
-        <v>0.0946449821499405</v>
+        <v>0.227547124791219</v>
       </c>
     </row>
     <row r="15" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">05021</t>
+          <t xml:space="preserve">18021</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">Clay, AR        </t>
+          <t xml:space="preserve">Clay, IN        </t>
         </is>
       </c>
       <c s="8" r="C15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c s="7" r="D15">
-        <v>0.767040027785013</v>
+        <v>0.0460822998872604</v>
       </c>
       <c s="7" r="E15">
-        <v>0.620082342177493</v>
+        <v>0.0825512227362855</v>
       </c>
       <c s="7" r="F15">
-        <v>0.520642570281124</v>
+        <v>0.0984132864110638</v>
       </c>
       <c s="7" r="G15">
-        <v>0.393921971252567</v>
+        <v>0.127658344891355</v>
       </c>
       <c s="3" t="str" r="H15"/>
       <c s="7" r="I15">
-        <v>0.233819345661451</v>
+        <v>0.132373151558463</v>
       </c>
       <c s="7" r="J15">
-        <v>0.157050352759254</v>
+        <v>0.162973474511516</v>
       </c>
     </row>
     <row r="16" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">05023</t>
+          <t xml:space="preserve">18023</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">Cleburne, AR        </t>
+          <t xml:space="preserve">Clinton, IN        </t>
         </is>
       </c>
       <c s="8" r="C16">
         <v>6</v>
       </c>
       <c s="7" r="D16">
-        <v>0.732776934749621</v>
+        <v>0.0596129478170718</v>
       </c>
       <c s="7" r="E16">
-        <v>0.504808564688804</v>
+        <v>0.0933432109217907</v>
       </c>
       <c s="7" r="F16">
-        <v>0.389514731369151</v>
+        <v>0.110289308176101</v>
       </c>
       <c s="7" r="G16">
-        <v>0.252153303659171</v>
+        <v>0.101407284768212</v>
       </c>
       <c s="3" t="str" r="H16"/>
       <c s="7" r="I16">
-        <v>0.164901743849112</v>
+        <v>0.134216294361796</v>
       </c>
       <c s="7" r="J16">
-        <v>0.117532677973426</v>
+        <v>0.14938953623323</v>
       </c>
     </row>
     <row r="17" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">05025</t>
+          <t xml:space="preserve">18025</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">Cleveland, AR        </t>
+          <t xml:space="preserve">Crawford, IN        </t>
         </is>
       </c>
       <c s="8" r="C17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c s="7" r="D17">
-        <v>0.691547464239272</v>
+        <v>0.0363755173164888</v>
       </c>
       <c s="7" r="E17">
-        <v>0.544311753614079</v>
+        <v>0.0560184364474384</v>
       </c>
       <c s="7" r="F17">
-        <v>0.400837153677497</v>
+        <v>0.0570112752104177</v>
       </c>
       <c s="7" r="G17">
-        <v>0.269305531012546</v>
+        <v>0.0840857787810384</v>
       </c>
       <c s="3" t="str" r="H17"/>
       <c s="7" r="I17">
-        <v>0.14900153609831</v>
+        <v>0.124777914445811</v>
       </c>
       <c s="7" r="J17">
-        <v>0.0929307539323811</v>
+        <v>0.117330462863294</v>
       </c>
     </row>
     <row r="18" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">05027</t>
+          <t xml:space="preserve">18027</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">Columbia, AR        </t>
+          <t xml:space="preserve">Daviess, IN        </t>
         </is>
       </c>
       <c s="8" r="C18">
         <v>7</v>
       </c>
       <c s="7" r="D18">
-        <v>0.610616341532372</v>
+        <v>0.0514316732256751</v>
       </c>
       <c s="7" r="E18">
-        <v>0.4744943964962</v>
+        <v>0.0710805213789743</v>
       </c>
       <c s="7" r="F18">
-        <v>0.357346913426904</v>
+        <v>0.0763305727688655</v>
       </c>
       <c s="7" r="G18">
-        <v>0.2594301390361</v>
+        <v>0.0968641114982578</v>
       </c>
       <c s="3" t="str" r="H18"/>
       <c s="7" r="I18">
-        <v>0.155167925019526</v>
+        <v>0.117557715674362</v>
       </c>
       <c s="7" r="J18">
-        <v>0.129812824709985</v>
+        <v>0.136814116509548</v>
       </c>
     </row>
     <row r="19" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">05029</t>
+          <t xml:space="preserve">18029</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">Conway, AR        </t>
+          <t xml:space="preserve">Dearborn, IN        </t>
         </is>
       </c>
       <c s="8" r="C19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c s="7" r="D19">
-        <v>0.624624302275655</v>
+        <v>0.0424310495444902</v>
       </c>
       <c s="7" r="E19">
-        <v>0.491019013405765</v>
+        <v>0.0957305889545547</v>
       </c>
       <c s="7" r="F19">
-        <v>0.355037752699521</v>
+        <v>0.107458393260736</v>
       </c>
       <c s="7" r="G19">
-        <v>0.268323442136499</v>
+        <v>0.154213785675821</v>
       </c>
       <c s="3" t="str" r="H19"/>
       <c s="7" r="I19">
-        <v>0.170035671819263</v>
+        <v>0.178372120636428</v>
       </c>
       <c s="7" r="J19">
-        <v>0.11862874626243</v>
+        <v>0.249048781872906</v>
       </c>
     </row>
     <row r="20" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">05031</t>
+          <t xml:space="preserve">18031</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">Craighead, AR        </t>
+          <t xml:space="preserve">Decatur, IN        </t>
         </is>
       </c>
       <c s="8" r="C20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="7" r="D20">
-        <v>0.608254596059474</v>
+        <v>0.0551446416831032</v>
       </c>
       <c s="7" r="E20">
-        <v>0.460248798416737</v>
+        <v>0.0805309074640221</v>
       </c>
       <c s="7" r="F20">
-        <v>0.324998215602769</v>
+        <v>0.0967521367521368</v>
       </c>
       <c s="7" r="G20">
-        <v>0.227008378511582</v>
+        <v>0.11468522698771</v>
       </c>
       <c s="3" t="str" r="H20"/>
       <c s="7" r="I20">
-        <v>0.15307743216413</v>
+        <v>0.136989471248409</v>
       </c>
       <c s="7" r="J20">
-        <v>0.103407688926075</v>
+        <v>0.208246610789222</v>
       </c>
     </row>
     <row r="21" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">05033</t>
+          <t xml:space="preserve">18033</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">Crawford, AR        </t>
+          <t xml:space="preserve">DeKalb, IN        </t>
         </is>
       </c>
       <c s="8" r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="7" r="D21">
-        <v>0.63563681868743</v>
+        <v>0.04967812462043</v>
       </c>
       <c s="7" r="E21">
-        <v>0.474579456817968</v>
+        <v>0.0847010396326983</v>
       </c>
       <c s="7" r="F21">
-        <v>0.362383584462785</v>
+        <v>0.0987569377551488</v>
       </c>
       <c s="7" r="G21">
-        <v>0.285147341922109</v>
+        <v>0.124</v>
       </c>
       <c s="3" t="str" r="H21"/>
       <c s="7" r="I21">
-        <v>0.188155214388632</v>
+        <v>0.163016067440017</v>
       </c>
       <c s="7" r="J21">
-        <v>0.150786852345872</v>
+        <v>0.186867474012831</v>
       </c>
     </row>
     <row r="22" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">05035</t>
+          <t xml:space="preserve">18035</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">Crittenden, AR        </t>
+          <t xml:space="preserve">Delaware, IN        </t>
         </is>
       </c>
       <c s="8" r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="7" r="D22">
-        <v>0.687579912702262</v>
+        <v>0.097954470986566</v>
       </c>
       <c s="7" r="E22">
-        <v>0.538497615883686</v>
+        <v>0.149302824454773</v>
       </c>
       <c s="7" r="F22">
-        <v>0.424090424983681</v>
+        <v>0.164738206177683</v>
       </c>
       <c s="7" r="G22">
-        <v>0.308287329344485</v>
+        <v>0.203784992545967</v>
       </c>
       <c s="3" t="str" r="H22"/>
       <c s="7" r="I22">
-        <v>0.213451882176096</v>
+        <v>0.22201384678295</v>
       </c>
       <c s="7" r="J22">
-        <v>0.154997570063178</v>
+        <v>0.25443812416718</v>
       </c>
     </row>
     <row r="23" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">05037</t>
+          <t xml:space="preserve">18037</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">Cross, AR        </t>
+          <t xml:space="preserve">Dubois, IN        </t>
         </is>
       </c>
       <c s="8" r="C23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c s="7" r="D23">
-        <v>0.724134480688413</v>
+        <v>0.0494249903088254</v>
       </c>
       <c s="7" r="E23">
-        <v>0.564919863137043</v>
+        <v>0.102362619976796</v>
       </c>
       <c s="7" r="F23">
-        <v>0.441518202943455</v>
+        <v>0.108939400549714</v>
       </c>
       <c s="7" r="G23">
-        <v>0.316629068643248</v>
+        <v>0.144872342905996</v>
       </c>
       <c s="3" t="str" r="H23"/>
       <c s="7" r="I23">
-        <v>0.20023282887078</v>
+        <v>0.19493136219641</v>
       </c>
       <c s="7" r="J23">
-        <v>0.18200391589342</v>
+        <v>0.24647266313933</v>
       </c>
     </row>
     <row r="24" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">05039</t>
+          <t xml:space="preserve">18039</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B24">
         <is>
-          <t xml:space="preserve">Dallas, AR        </t>
+          <t xml:space="preserve">Elkhart, IN        </t>
         </is>
       </c>
       <c s="8" r="C24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c s="7" r="D24">
-        <v>0.680184017720225</v>
+        <v>0.0859522336717913</v>
       </c>
       <c s="7" r="E24">
-        <v>0.480552070263488</v>
+        <v>0.122714706144654</v>
       </c>
       <c s="7" r="F24">
-        <v>0.408249686323714</v>
+        <v>0.142141391414852</v>
       </c>
       <c s="7" r="G24">
-        <v>0.331607947904492</v>
+        <v>0.155073156906508</v>
       </c>
       <c s="3" t="str" r="H24"/>
       <c s="7" r="I24">
-        <v>0.191798221738341</v>
+        <v>0.181496155118574</v>
       </c>
       <c s="7" r="J24">
-        <v>0.122532188841202</v>
+        <v>0.200194311418473</v>
       </c>
     </row>
     <row r="25" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">05041</t>
+          <t xml:space="preserve">18041</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B25">
         <is>
-          <t xml:space="preserve">Desha, AR        </t>
+          <t xml:space="preserve">Fayette, IN        </t>
         </is>
       </c>
       <c s="8" r="C25">
         <v>6</v>
       </c>
       <c s="7" r="D25">
-        <v>0.68498322147651</v>
+        <v>0.0429720575783235</v>
       </c>
       <c s="7" r="E25">
-        <v>0.537715415764196</v>
+        <v>0.0724281856125706</v>
       </c>
       <c s="7" r="F25">
-        <v>0.434642821259922</v>
+        <v>0.0808647873865265</v>
       </c>
       <c s="7" r="G25">
-        <v>0.350010444955087</v>
+        <v>0.0784233576642336</v>
       </c>
       <c s="3" t="str" r="H25"/>
       <c s="7" r="I25">
-        <v>0.24292343387471</v>
+        <v>0.0844655524828664</v>
       </c>
       <c s="7" r="J25">
-        <v>0.191123188405797</v>
+        <v>0.150566451455719</v>
       </c>
     </row>
     <row r="26" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">05043</t>
+          <t xml:space="preserve">18043</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B26">
         <is>
-          <t xml:space="preserve">Drew, AR        </t>
+          <t xml:space="preserve">Floyd, IN        </t>
         </is>
       </c>
       <c s="8" r="C26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c s="7" r="D26">
-        <v>0.653787299158378</v>
+        <v>0.0561014888092812</v>
       </c>
       <c s="7" r="E26">
-        <v>0.483890516109484</v>
+        <v>0.10580375782881</v>
       </c>
       <c s="7" r="F26">
-        <v>0.369341662662182</v>
+        <v>0.151401238584062</v>
       </c>
       <c s="7" r="G26">
-        <v>0.26945382151822</v>
+        <v>0.203780385762406</v>
       </c>
       <c s="3" t="str" r="H26"/>
       <c s="7" r="I26">
-        <v>0.173308461929795</v>
+        <v>0.223645104023298</v>
       </c>
       <c s="7" r="J26">
-        <v>0.13034914950761</v>
+        <v>0.302655253257729</v>
       </c>
     </row>
     <row r="27" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">05045</t>
+          <t xml:space="preserve">18045</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B27">
         <is>
-          <t xml:space="preserve">Faulkner, AR        </t>
+          <t xml:space="preserve">Fountain, IN        </t>
         </is>
       </c>
       <c s="8" r="C27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c s="7" r="D27">
-        <v>0.515239845383689</v>
+        <v>0.0466982500241709</v>
       </c>
       <c s="7" r="E27">
-        <v>0.380520117762512</v>
+        <v>0.0795165951484368</v>
       </c>
       <c s="7" r="F27">
-        <v>0.276340748404897</v>
+        <v>0.0755555555555556</v>
       </c>
       <c s="7" r="G27">
-        <v>0.166532281854117</v>
+        <v>0.100553970119188</v>
       </c>
       <c s="3" t="str" r="H27"/>
       <c s="7" r="I27">
-        <v>0.111931209555533</v>
+        <v>0.111054895016443</v>
       </c>
       <c s="7" r="J27">
-        <v>0.068893364371093</v>
+        <v>0.130344108446298</v>
       </c>
     </row>
     <row r="28" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">05047</t>
+          <t xml:space="preserve">18047</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B28">
         <is>
-          <t xml:space="preserve">Franklin, AR        </t>
+          <t xml:space="preserve">Franklin, IN        </t>
         </is>
       </c>
       <c s="8" r="C28">
         <v>6</v>
       </c>
       <c s="7" r="D28">
-        <v>0.650225563909774</v>
+        <v>0.0484220120770195</v>
       </c>
       <c s="7" r="E28">
-        <v>0.488559130040779</v>
+        <v>0.0779632565513382</v>
       </c>
       <c s="7" r="F28">
-        <v>0.399460468976966</v>
+        <v>0.0823011056613185</v>
       </c>
       <c s="7" r="G28">
-        <v>0.289085292603398</v>
+        <v>0.125334083556056</v>
       </c>
       <c s="3" t="str" r="H28"/>
       <c s="7" r="I28">
-        <v>0.168280275680998</v>
+        <v>0.176516129032258</v>
       </c>
       <c s="7" r="J28">
-        <v>0.13521985935779</v>
+        <v>0.21363926067559</v>
       </c>
     </row>
     <row r="29" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">05049</t>
+          <t xml:space="preserve">18049</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B29">
         <is>
-          <t xml:space="preserve">Fulton, AR        </t>
+          <t xml:space="preserve">Fulton, IN        </t>
         </is>
       </c>
       <c s="8" r="C29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c s="7" r="D29">
-        <v>0.729740932642487</v>
+        <v>0.0547334279343199</v>
       </c>
       <c s="7" r="E29">
-        <v>0.513380498308213</v>
+        <v>0.0851899274434486</v>
       </c>
       <c s="7" r="F29">
-        <v>0.451436781609195</v>
+        <v>0.0939137444578799</v>
       </c>
       <c s="7" r="G29">
-        <v>0.278418051680214</v>
+        <v>0.102916329978697</v>
       </c>
       <c s="3" t="str" r="H29"/>
       <c s="7" r="I29">
-        <v>0.170425221586447</v>
+        <v>0.146736440138604</v>
       </c>
       <c s="7" r="J29">
-        <v>0.141046324037797</v>
+        <v>0.162975135753072</v>
       </c>
     </row>
     <row r="30" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">05051</t>
+          <t xml:space="preserve">18051</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B30">
         <is>
-          <t xml:space="preserve">Garland, AR        </t>
+          <t xml:space="preserve">Gibson, IN        </t>
         </is>
       </c>
       <c s="8" r="C30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="7" r="D30">
-        <v>0.550946638618115</v>
+        <v>0.0625286041189931</v>
       </c>
       <c s="7" r="E30">
-        <v>0.401442982740371</v>
+        <v>0.0896364185718602</v>
       </c>
       <c s="7" r="F30">
-        <v>0.29824088167858</v>
+        <v>0.0913647429471574</v>
       </c>
       <c s="7" r="G30">
-        <v>0.217070214055572</v>
+        <v>0.12422789711441</v>
       </c>
       <c s="3" t="str" r="H30"/>
       <c s="7" r="I30">
-        <v>0.139747426819476</v>
+        <v>0.143116664451238</v>
       </c>
       <c s="7" r="J30">
-        <v>0.0962256841639226</v>
+        <v>0.181757508342603</v>
       </c>
     </row>
     <row r="31" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">05053</t>
+          <t xml:space="preserve">18053</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">Grant, AR        </t>
+          <t xml:space="preserve">Grant, IN        </t>
         </is>
       </c>
       <c s="8" r="C31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="7" r="D31">
-        <v>0.657482441923285</v>
+        <v>0.072438764159724</v>
       </c>
       <c s="7" r="E31">
-        <v>0.465588615782665</v>
+        <v>0.0973397692590749</v>
       </c>
       <c s="7" r="F31">
-        <v>0.311491823339637</v>
+        <v>0.111798237310953</v>
       </c>
       <c s="7" r="G31">
-        <v>0.22819660014782</v>
+        <v>0.140714647316909</v>
       </c>
       <c s="3" t="str" r="H31"/>
       <c s="7" r="I31">
-        <v>0.158342979990078</v>
+        <v>0.172461538461538</v>
       </c>
       <c s="7" r="J31">
-        <v>0.0840369603313685</v>
+        <v>0.195563787495482</v>
       </c>
     </row>
     <row r="32" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">05055</t>
+          <t xml:space="preserve">18055</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B32">
         <is>
-          <t xml:space="preserve">Greene, AR        </t>
+          <t xml:space="preserve">Greene, IN        </t>
         </is>
       </c>
       <c s="8" r="C32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c s="7" r="D32">
-        <v>0.712430555555556</v>
+        <v>0.0490729295426452</v>
       </c>
       <c s="7" r="E32">
-        <v>0.552178372833774</v>
+        <v>0.0727004530607944</v>
       </c>
       <c s="7" r="F32">
-        <v>0.415176204020633</v>
+        <v>0.0985390578413834</v>
       </c>
       <c s="7" r="G32">
-        <v>0.279396164830681</v>
+        <v>0.104616895874263</v>
       </c>
       <c s="3" t="str" r="H32"/>
       <c s="7" r="I32">
-        <v>0.178164841084575</v>
+        <v>0.11285142329183</v>
       </c>
       <c s="7" r="J32">
-        <v>0.113388644867415</v>
+        <v>0.157199652698442</v>
       </c>
     </row>
     <row r="33" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">05057</t>
+          <t xml:space="preserve">18057</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B33">
         <is>
-          <t xml:space="preserve">Hempstead, AR        </t>
+          <t xml:space="preserve">Hamilton, IN        </t>
         </is>
       </c>
       <c s="8" r="C33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c s="7" r="D33">
-        <v>0.632790616246499</v>
+        <v>0.113945402595614</v>
       </c>
       <c s="7" r="E33">
-        <v>0.437561317449194</v>
+        <v>0.257318075488399</v>
       </c>
       <c s="7" r="F33">
-        <v>0.379727685325265</v>
+        <v>0.361783384205882</v>
       </c>
       <c s="7" r="G33">
-        <v>0.308292420472123</v>
+        <v>0.48866963772036</v>
       </c>
       <c s="3" t="str" r="H33"/>
       <c s="7" r="I33">
-        <v>0.207620741551512</v>
+        <v>0.550354553871864</v>
       </c>
       <c s="7" r="J33">
-        <v>0.161663331109629</v>
+        <v>0.605340397871704</v>
       </c>
     </row>
     <row r="34" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">05059</t>
+          <t xml:space="preserve">18059</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B34">
         <is>
-          <t xml:space="preserve">Hot Spring, AR        </t>
+          <t xml:space="preserve">Hancock, IN        </t>
         </is>
       </c>
       <c s="8" r="C34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c s="7" r="D34">
-        <v>0.631491318480932</v>
+        <v>0.0658216830767557</v>
       </c>
       <c s="7" r="E34">
-        <v>0.45982937457804</v>
+        <v>0.113333066164389</v>
       </c>
       <c s="7" r="F34">
-        <v>0.35525321239607</v>
+        <v>0.149117971334068</v>
       </c>
       <c s="7" r="G34">
-        <v>0.267472852912142</v>
+        <v>0.221859574353303</v>
       </c>
       <c s="3" t="str" r="H34"/>
       <c s="7" r="I34">
-        <v>0.170978029766123</v>
+        <v>0.254198031268095</v>
       </c>
       <c s="7" r="J34">
-        <v>0.114354715702059</v>
+        <v>0.325724918020707</v>
       </c>
     </row>
     <row r="35" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">05061</t>
+          <t xml:space="preserve">18061</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">Howard, AR        </t>
+          <t xml:space="preserve">Harrison, IN        </t>
         </is>
       </c>
       <c s="8" r="C35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c s="7" r="D35">
-        <v>0.655539568345324</v>
+        <v>0.0377731810414606</v>
       </c>
       <c s="7" r="E35">
-        <v>0.519185975235994</v>
+        <v>0.0676604018146468</v>
       </c>
       <c s="7" r="F35">
-        <v>0.381813937200887</v>
+        <v>0.0837537840565086</v>
       </c>
       <c s="7" r="G35">
-        <v>0.292632941430266</v>
+        <v>0.130738745157412</v>
       </c>
       <c s="3" t="str" r="H35"/>
       <c s="7" r="I35">
-        <v>0.23999112786958</v>
+        <v>0.14526159002048</v>
       </c>
       <c s="7" r="J35">
-        <v>0.119479311947931</v>
+        <v>0.187735206623419</v>
       </c>
     </row>
     <row r="36" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">05063</t>
+          <t xml:space="preserve">18063</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B36">
         <is>
-          <t xml:space="preserve">Independence, AR        </t>
+          <t xml:space="preserve">Hendricks, IN        </t>
         </is>
       </c>
       <c s="8" r="C36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c s="7" r="D36">
-        <v>0.648893138192248</v>
+        <v>0.0833809659902829</v>
       </c>
       <c s="7" r="E36">
-        <v>0.497928977743414</v>
+        <v>0.143875289614184</v>
       </c>
       <c s="7" r="F36">
-        <v>0.368533518859017</v>
+        <v>0.181613836451808</v>
       </c>
       <c s="7" r="G36">
-        <v>0.244968068707333</v>
+        <v>0.231136326699467</v>
       </c>
       <c s="3" t="str" r="H36"/>
       <c s="7" r="I36">
-        <v>0.183520903587535</v>
+        <v>0.320100502512563</v>
       </c>
       <c s="7" r="J36">
-        <v>0.142159565251634</v>
+        <v>0.394544002222685</v>
       </c>
     </row>
     <row r="37" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">05065</t>
+          <t xml:space="preserve">18065</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B37">
         <is>
-          <t xml:space="preserve">Izard, AR        </t>
+          <t xml:space="preserve">Henry, IN        </t>
         </is>
       </c>
       <c s="8" r="C37">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c s="7" r="D37">
-        <v>0.728073856483424</v>
+        <v>0.0541428818543505</v>
       </c>
       <c s="7" r="E37">
-        <v>0.488719797089841</v>
+        <v>0.0735087942900841</v>
       </c>
       <c s="7" r="F37">
-        <v>0.388753056234719</v>
+        <v>0.0915939854324924</v>
       </c>
       <c s="7" r="G37">
-        <v>0.266694666106678</v>
+        <v>0.116844388216158</v>
       </c>
       <c s="3" t="str" r="H37"/>
       <c s="7" r="I37">
-        <v>0.196182605273514</v>
+        <v>0.140133433024674</v>
       </c>
       <c s="7" r="J37">
-        <v>0.178967867575463</v>
+        <v>0.175462310546145</v>
       </c>
     </row>
     <row r="38" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">05067</t>
+          <t xml:space="preserve">18067</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B38">
         <is>
-          <t xml:space="preserve">Jackson, AR        </t>
+          <t xml:space="preserve">Howard, IN        </t>
         </is>
       </c>
       <c s="8" r="C38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c s="7" r="D38">
-        <v>0.716239612188366</v>
+        <v>0.0819513320262946</v>
       </c>
       <c s="7" r="E38">
-        <v>0.587772723768406</v>
+        <v>0.110010270041684</v>
       </c>
       <c s="7" r="F38">
-        <v>0.483519089400047</v>
+        <v>0.143211252449944</v>
       </c>
       <c s="7" r="G38">
-        <v>0.339560799737791</v>
+        <v>0.180765536622674</v>
       </c>
       <c s="3" t="str" r="H38"/>
       <c s="7" r="I38">
-        <v>0.247401412362136</v>
+        <v>0.197262593481022</v>
       </c>
       <c s="7" r="J38">
-        <v>0.165178943855844</v>
+        <v>0.208407341622262</v>
       </c>
     </row>
     <row r="39" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">05069</t>
+          <t xml:space="preserve">18069</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B39">
         <is>
-          <t xml:space="preserve">Jefferson, AR        </t>
+          <t xml:space="preserve">Huntington, IN        </t>
         </is>
       </c>
       <c s="8" r="C39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="7" r="D39">
-        <v>0.560580046403712</v>
+        <v>0.0734006734006734</v>
       </c>
       <c s="7" r="E39">
-        <v>0.424057815206355</v>
+        <v>0.102501584824694</v>
       </c>
       <c s="7" r="F39">
-        <v>0.340870876094393</v>
+        <v>0.117856499008473</v>
       </c>
       <c s="7" r="G39">
-        <v>0.251769178649402</v>
+        <v>0.142089723611908</v>
       </c>
       <c s="3" t="str" r="H39"/>
       <c s="7" r="I39">
-        <v>0.17156862745098</v>
+        <v>0.15900974025974</v>
       </c>
       <c s="7" r="J39">
-        <v>0.115985434487514</v>
+        <v>0.209268040004781</v>
       </c>
     </row>
     <row r="40" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">05071</t>
+          <t xml:space="preserve">18071</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B40">
         <is>
-          <t xml:space="preserve">Johnson, AR        </t>
+          <t xml:space="preserve">Jackson, IN        </t>
         </is>
       </c>
       <c s="8" r="C40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c s="7" r="D40">
-        <v>0.670256534365924</v>
+        <v>0.053293611386958</v>
       </c>
       <c s="7" r="E40">
-        <v>0.52203262703919</v>
+        <v>0.0737149312747129</v>
       </c>
       <c s="7" r="F40">
-        <v>0.366533525962437</v>
+        <v>0.0872013581218169</v>
       </c>
       <c s="7" r="G40">
-        <v>0.323736661968995</v>
+        <v>0.114518447532343</v>
       </c>
       <c s="3" t="str" r="H40"/>
       <c s="7" r="I40">
-        <v>0.225814277915934</v>
+        <v>0.13554532133138</v>
       </c>
       <c s="7" r="J40">
-        <v>0.199197782103463</v>
+        <v>0.175359712230216</v>
       </c>
     </row>
     <row r="41" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">05073</t>
+          <t xml:space="preserve">18073</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B41">
         <is>
-          <t xml:space="preserve">Lafayette, AR        </t>
+          <t xml:space="preserve">Jasper, IN        </t>
         </is>
       </c>
       <c s="8" r="C41">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c s="7" r="D41">
-        <v>0.684029038112523</v>
+        <v>0.0617567702608174</v>
       </c>
       <c s="7" r="E41">
-        <v>0.588421227749127</v>
+        <v>0.0930969880386223</v>
       </c>
       <c s="7" r="F41">
-        <v>0.484257133486389</v>
+        <v>0.108449012279765</v>
       </c>
       <c s="7" r="G41">
-        <v>0.347153900210822</v>
+        <v>0.129966401791904</v>
       </c>
       <c s="3" t="str" r="H41"/>
       <c s="7" r="I41">
-        <v>0.240403257076386</v>
+        <v>0.144763482422235</v>
       </c>
       <c s="7" r="J41">
-        <v>0.189224704336399</v>
+        <v>0.17406448155756</v>
       </c>
     </row>
     <row r="42" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">05075</t>
+          <t xml:space="preserve">18075</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B42">
         <is>
-          <t xml:space="preserve">Lawrence, AR        </t>
+          <t xml:space="preserve">Jay, IN        </t>
         </is>
       </c>
       <c s="8" r="C42">
         <v>6</v>
       </c>
       <c s="7" r="D42">
-        <v>0.721351408599873</v>
+        <v>0.0438869097248541</v>
       </c>
       <c s="7" r="E42">
-        <v>0.590351812366738</v>
+        <v>0.0689528565134381</v>
       </c>
       <c s="7" r="F42">
-        <v>0.466957279860506</v>
+        <v>0.0819186592501625</v>
       </c>
       <c s="7" r="G42">
-        <v>0.367472936400541</v>
+        <v>0.0988095238095238</v>
       </c>
       <c s="3" t="str" r="H42"/>
       <c s="7" r="I42">
-        <v>0.235740472333532</v>
+        <v>0.0984429934706178</v>
       </c>
       <c s="7" r="J42">
-        <v>0.152078774617068</v>
+        <v>0.129442546696708</v>
       </c>
     </row>
     <row r="43" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">05077</t>
+          <t xml:space="preserve">18077</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B43">
         <is>
-          <t xml:space="preserve">Lee, AR        </t>
+          <t xml:space="preserve">Jefferson, IN        </t>
         </is>
       </c>
       <c s="8" r="C43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="7" r="D43">
-        <v>0.796866256295467</v>
+        <v>0.0718311795435799</v>
       </c>
       <c s="7" r="E43">
-        <v>0.680941404828339</v>
+        <v>0.121989256627967</v>
       </c>
       <c s="7" r="F43">
-        <v>0.558426229508197</v>
+        <v>0.132973087518542</v>
       </c>
       <c s="7" r="G43">
-        <v>0.437783947501262</v>
+        <v>0.163649599611745</v>
       </c>
       <c s="3" t="str" r="H43"/>
       <c s="7" r="I43">
-        <v>0.291590364840118</v>
+        <v>0.169578575686706</v>
       </c>
       <c s="7" r="J43">
-        <v>0.182618437900128</v>
+        <v>0.18416597942619</v>
       </c>
     </row>
     <row r="44" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">05079</t>
+          <t xml:space="preserve">18079</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B44">
         <is>
-          <t xml:space="preserve">Lincoln, AR        </t>
+          <t xml:space="preserve">Jennings, IN        </t>
         </is>
       </c>
       <c s="8" r="C44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="7" r="D44">
-        <v>0.750075142771265</v>
+        <v>0.0418920247811978</v>
       </c>
       <c s="7" r="E44">
-        <v>0.58361118235445</v>
+        <v>0.0682743501409333</v>
       </c>
       <c s="7" r="F44">
-        <v>0.414823008849558</v>
+        <v>0.0647838308124749</v>
       </c>
       <c s="7" r="G44">
-        <v>0.350047204447708</v>
+        <v>0.0835168558360156</v>
       </c>
       <c s="3" t="str" r="H44"/>
       <c s="7" r="I44">
-        <v>0.28158109209454</v>
+        <v>0.0894374529418092</v>
       </c>
       <c s="7" r="J44">
-        <v>0.187924222469861</v>
+        <v>0.154325222990447</v>
       </c>
     </row>
     <row r="45" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">05081</t>
+          <t xml:space="preserve">18081</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B45">
         <is>
-          <t xml:space="preserve">Little River, AR        </t>
+          <t xml:space="preserve">Johnson, IN        </t>
         </is>
       </c>
       <c s="8" r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="7" r="D45">
-        <v>0.640556860114056</v>
+        <v>0.0814353813559322</v>
       </c>
       <c s="7" r="E45">
-        <v>0.478079067410035</v>
+        <v>0.13251034514645</v>
       </c>
       <c s="7" r="F45">
-        <v>0.353846153846154</v>
+        <v>0.166929647967789</v>
       </c>
       <c s="7" r="G45">
-        <v>0.265512265512266</v>
+        <v>0.230862828867317</v>
       </c>
       <c s="3" t="str" r="H45"/>
       <c s="7" r="I45">
-        <v>0.159051158723218</v>
+        <v>0.259229709939015</v>
       </c>
       <c s="7" r="J45">
-        <v>0.101098114108379</v>
+        <v>0.328237401637576</v>
       </c>
     </row>
     <row r="46" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">05083</t>
+          <t xml:space="preserve">18083</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B46">
         <is>
-          <t xml:space="preserve">Logan, AR        </t>
+          <t xml:space="preserve">Knox, IN        </t>
         </is>
       </c>
       <c s="8" r="C46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c s="7" r="D46">
-        <v>0.694701595430372</v>
+        <v>0.0621786081590675</v>
       </c>
       <c s="7" r="E46">
-        <v>0.534960151179032</v>
+        <v>0.098546042003231</v>
       </c>
       <c s="7" r="F46">
-        <v>0.418918918918919</v>
+        <v>0.111115602263541</v>
       </c>
       <c s="7" r="G46">
-        <v>0.302052785923754</v>
+        <v>0.143937261210537</v>
       </c>
       <c s="3" t="str" r="H46"/>
       <c s="7" r="I46">
-        <v>0.198679432155827</v>
+        <v>0.146062014261678</v>
       </c>
       <c s="7" r="J46">
-        <v>0.122715231788079</v>
+        <v>0.186399338569657</v>
       </c>
     </row>
     <row r="47" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">05085</t>
+          <t xml:space="preserve">18085</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B47">
         <is>
-          <t xml:space="preserve">Lonoke, AR        </t>
+          <t xml:space="preserve">Kosciusko, IN        </t>
         </is>
       </c>
       <c s="8" r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="7" r="D47">
-        <v>0.638408914592002</v>
+        <v>0.0779265493496557</v>
       </c>
       <c s="7" r="E47">
-        <v>0.466556989357874</v>
+        <v>0.121442403614811</v>
       </c>
       <c s="7" r="F47">
-        <v>0.329016393442623</v>
+        <v>0.143622429999256</v>
       </c>
       <c s="7" r="G47">
-        <v>0.223586709692841</v>
+        <v>0.148568031760185</v>
       </c>
       <c s="3" t="str" r="H47"/>
       <c s="7" r="I47">
-        <v>0.13807293561295</v>
+        <v>0.201555296119675</v>
       </c>
       <c s="7" r="J47">
-        <v>0.100596881598181</v>
+        <v>0.242990131149376</v>
       </c>
     </row>
     <row r="48" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">05087</t>
+          <t xml:space="preserve">18087</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B48">
         <is>
-          <t xml:space="preserve">Madison, AR        </t>
+          <t xml:space="preserve">LaGrange, IN        </t>
         </is>
       </c>
       <c s="8" r="C48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c s="7" r="D48">
-        <v>0.741656365883807</v>
+        <v>0.047383519635968</v>
       </c>
       <c s="7" r="E48">
-        <v>0.521474992935858</v>
+        <v>0.0690677000227946</v>
       </c>
       <c s="7" r="F48">
-        <v>0.404210247583742</v>
+        <v>0.0733540372670807</v>
       </c>
       <c s="7" r="G48">
-        <v>0.3217540473893</v>
+        <v>0.0885803576002869</v>
       </c>
       <c s="3" t="str" r="H48"/>
       <c s="7" r="I48">
-        <v>0.251947077038566</v>
+        <v>0.109345260753711</v>
       </c>
       <c s="7" r="J48">
-        <v>0.150887573964497</v>
+        <v>0.104287121504133</v>
       </c>
     </row>
     <row r="49" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">05089</t>
+          <t xml:space="preserve">18089</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B49">
         <is>
-          <t xml:space="preserve">Marion, AR        </t>
+          <t xml:space="preserve">Lake, IN        </t>
         </is>
       </c>
       <c s="8" r="C49">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c s="7" r="D49">
-        <v>0.642810810810811</v>
+        <v>0.0632768886569789</v>
       </c>
       <c s="7" r="E49">
-        <v>0.438203753351206</v>
+        <v>0.100928393837338</v>
       </c>
       <c s="7" r="F49">
-        <v>0.357728269652545</v>
+        <v>0.12802459872987</v>
       </c>
       <c s="7" r="G49">
-        <v>0.240058656085569</v>
+        <v>0.162165559925214</v>
       </c>
       <c s="3" t="str" r="H49"/>
       <c s="7" r="I49">
-        <v>0.162398550153652</v>
+        <v>0.197158972087931</v>
       </c>
       <c s="7" r="J49">
-        <v>0.13827044762128</v>
+        <v>0.236936025934628</v>
       </c>
     </row>
     <row r="50" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">05091</t>
+          <t xml:space="preserve">18091</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B50">
         <is>
-          <t xml:space="preserve">Miller, AR        </t>
+          <t xml:space="preserve">LaPorte, IN        </t>
         </is>
       </c>
       <c s="8" r="C50">
         <v>3</v>
       </c>
       <c s="7" r="D50">
-        <v>0.592391893356454</v>
+        <v>0.0651396221172548</v>
       </c>
       <c s="7" r="E50">
-        <v>0.450980392156863</v>
+        <v>0.106137865911237</v>
       </c>
       <c s="7" r="F50">
-        <v>0.36094103832928</v>
+        <v>0.117457419189181</v>
       </c>
       <c s="7" r="G50">
-        <v>0.25696006203955</v>
+        <v>0.139874937265168</v>
       </c>
       <c s="3" t="str" r="H50"/>
       <c s="7" r="I50">
-        <v>0.159636149012256</v>
+        <v>0.167761568299659</v>
       </c>
       <c s="7" r="J50">
-        <v>0.131028581208283</v>
+        <v>0.196614170230587</v>
       </c>
     </row>
     <row r="51" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">05093</t>
+          <t xml:space="preserve">18093</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B51">
         <is>
-          <t xml:space="preserve">Mississippi, AR        </t>
+          <t xml:space="preserve">Lawrence, IN        </t>
         </is>
       </c>
       <c s="8" r="C51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c s="7" r="D51">
-        <v>0.687682712921458</v>
+        <v>0.0484792198746227</v>
       </c>
       <c s="7" r="E51">
-        <v>0.531409707012031</v>
+        <v>0.0674232048522794</v>
       </c>
       <c s="7" r="F51">
-        <v>0.399550089982004</v>
+        <v>0.0938760935547224</v>
       </c>
       <c s="7" r="G51">
-        <v>0.352650892066304</v>
+        <v>0.107265437048917</v>
       </c>
       <c s="3" t="str" r="H51"/>
       <c s="7" r="I51">
-        <v>0.23426489292221</v>
+        <v>0.129375</v>
       </c>
       <c s="7" r="J51">
-        <v>0.173857820613396</v>
+        <v>0.19761136014545</v>
       </c>
     </row>
     <row r="52" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">05095</t>
+          <t xml:space="preserve">18095</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B52">
         <is>
-          <t xml:space="preserve">Monroe, AR        </t>
+          <t xml:space="preserve">Madison, IN        </t>
         </is>
       </c>
       <c s="8" r="C52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c s="7" r="D52">
-        <v>0.740299987603818</v>
+        <v>0.0666025389169636</v>
       </c>
       <c s="7" r="E52">
-        <v>0.601946593461443</v>
+        <v>0.103720947418985</v>
       </c>
       <c s="7" r="F52">
-        <v>0.470961375810544</v>
+        <v>0.117227811417666</v>
       </c>
       <c s="7" r="G52">
-        <v>0.362162980914874</v>
+        <v>0.14386639540343</v>
       </c>
       <c s="3" t="str" r="H52"/>
       <c s="7" r="I52">
-        <v>0.266429840142096</v>
+        <v>0.170397954147786</v>
       </c>
       <c s="7" r="J52">
-        <v>0.211890557498457</v>
+        <v>0.190160498593569</v>
       </c>
     </row>
     <row r="53" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">05097</t>
+          <t xml:space="preserve">18097</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B53">
         <is>
-          <t xml:space="preserve">Montgomery, AR        </t>
+          <t xml:space="preserve">Marion, IN        </t>
         </is>
       </c>
       <c s="8" r="C53">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c s="7" r="D53">
-        <v>0.657237022795935</v>
+        <v>0.114237297830657</v>
       </c>
       <c s="7" r="E53">
-        <v>0.524797470855562</v>
+        <v>0.163465869169654</v>
       </c>
       <c s="7" r="F53">
-        <v>0.39922480620155</v>
+        <v>0.214385039183742</v>
       </c>
       <c s="7" r="G53">
-        <v>0.301670792079208</v>
+        <v>0.253948350284303</v>
       </c>
       <c s="3" t="str" r="H53"/>
       <c s="7" r="I53">
-        <v>0.189377126793904</v>
+        <v>0.275738125802311</v>
       </c>
       <c s="7" r="J53">
-        <v>0.160411150911073</v>
+        <v>0.327864792723659</v>
       </c>
     </row>
     <row r="54" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">05099</t>
+          <t xml:space="preserve">18099</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B54">
         <is>
-          <t xml:space="preserve">Nevada, AR        </t>
+          <t xml:space="preserve">Marshall, IN        </t>
         </is>
       </c>
       <c s="8" r="C54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="7" r="D54">
-        <v>0.693783828112186</v>
+        <v>0.0764859228362878</v>
       </c>
       <c s="7" r="E54">
-        <v>0.520047697123267</v>
+        <v>0.104278309760169</v>
       </c>
       <c s="7" r="F54">
-        <v>0.393785571450546</v>
+        <v>0.122628342951982</v>
       </c>
       <c s="7" r="G54">
-        <v>0.309201520912548</v>
+        <v>0.149150761687971</v>
       </c>
       <c s="3" t="str" r="H54"/>
       <c s="7" r="I54">
-        <v>0.187813156618717</v>
+        <v>0.158542141230068</v>
       </c>
       <c s="7" r="J54">
-        <v>0.0903214535290007</v>
+        <v>0.205337672904801</v>
       </c>
     </row>
     <row r="55" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">05101</t>
+          <t xml:space="preserve">18101</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B55">
         <is>
-          <t xml:space="preserve">Newton, AR        </t>
+          <t xml:space="preserve">Martin, IN        </t>
         </is>
       </c>
       <c s="8" r="C55">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c s="7" r="D55">
-        <v>0.727812407242505</v>
+        <v>0.0434705778406079</v>
       </c>
       <c s="7" r="E55">
-        <v>0.547409159320576</v>
+        <v>0.0733184571246414</v>
       </c>
       <c s="7" r="F55">
-        <v>0.418746195982958</v>
+        <v>0.0857358490566038</v>
       </c>
       <c s="7" r="G55">
-        <v>0.298073615411077</v>
+        <v>0.0884517407302576</v>
       </c>
       <c s="3" t="str" r="H55"/>
       <c s="7" r="I55">
-        <v>0.193979933110368</v>
+        <v>0.112303997739794</v>
       </c>
       <c s="7" r="J55">
-        <v>0.147801683816651</v>
+        <v>0.144353899883586</v>
       </c>
     </row>
     <row r="56" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">05103</t>
+          <t xml:space="preserve">18103</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B56">
         <is>
-          <t xml:space="preserve">Ouachita, AR        </t>
+          <t xml:space="preserve">Miami, IN        </t>
         </is>
       </c>
       <c s="8" r="C56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="7" r="D56">
-        <v>0.616198592918835</v>
+        <v>0.0497435642085346</v>
       </c>
       <c s="7" r="E56">
-        <v>0.480378528656972</v>
+        <v>0.0780187171878566</v>
       </c>
       <c s="7" r="F56">
-        <v>0.351917595879794</v>
+        <v>0.0970278555244569</v>
       </c>
       <c s="7" r="G56">
-        <v>0.265191040843215</v>
+        <v>0.103702455667411</v>
       </c>
       <c s="3" t="str" r="H56"/>
       <c s="7" r="I56">
-        <v>0.148778433024431</v>
+        <v>0.0988915281076801</v>
       </c>
       <c s="7" r="J56">
-        <v>0.124384313236486</v>
+        <v>0.146635473254292</v>
       </c>
     </row>
     <row r="57" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">05105</t>
+          <t xml:space="preserve">18105</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B57">
         <is>
-          <t xml:space="preserve">Perry, AR        </t>
+          <t xml:space="preserve">Monroe, IN        </t>
         </is>
       </c>
       <c s="8" r="C57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D57">
-        <v>0.717697489283527</v>
+        <v>0.274366940694509</v>
       </c>
       <c s="7" r="E57">
-        <v>0.487603305785124</v>
+        <v>0.312968515742129</v>
       </c>
       <c s="7" r="F57">
-        <v>0.388633754305396</v>
+        <v>0.329190489471482</v>
       </c>
       <c s="7" r="G57">
-        <v>0.261845750109345</v>
+        <v>0.396280291346638</v>
       </c>
       <c s="3" t="str" r="H57"/>
       <c s="7" r="I57">
-        <v>0.180477043981801</v>
+        <v>0.4332676566653</v>
       </c>
       <c s="7" r="J57">
-        <v>0.0870239774330042</v>
+        <v>0.474206397993558</v>
       </c>
     </row>
     <row r="58" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">05107</t>
+          <t xml:space="preserve">18107</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B58">
         <is>
-          <t xml:space="preserve">Phillips, AR        </t>
+          <t xml:space="preserve">Montgomery, IN        </t>
         </is>
       </c>
       <c s="8" r="C58">
         <v>6</v>
       </c>
       <c s="7" r="D58">
-        <v>0.7299969577122</v>
+        <v>0.082416408503365</v>
       </c>
       <c s="7" r="E58">
-        <v>0.582938388625592</v>
+        <v>0.108870775537442</v>
       </c>
       <c s="7" r="F58">
-        <v>0.484521063493991</v>
+        <v>0.12771714620727</v>
       </c>
       <c s="7" r="G58">
-        <v>0.378145265888457</v>
+        <v>0.146728704950818</v>
       </c>
       <c s="3" t="str" r="H58"/>
       <c s="7" r="I58">
-        <v>0.26960928319624</v>
+        <v>0.175708151124769</v>
       </c>
       <c s="7" r="J58">
-        <v>0.183126822157434</v>
+        <v>0.202338547312994</v>
       </c>
     </row>
     <row r="59" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">05109</t>
+          <t xml:space="preserve">18109</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B59">
         <is>
-          <t xml:space="preserve">Pike, AR        </t>
+          <t xml:space="preserve">Morgan, IN        </t>
         </is>
       </c>
       <c s="8" r="C59">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c s="7" r="D59">
-        <v>0.69998128392289</v>
+        <v>0.0561807788495891</v>
       </c>
       <c s="7" r="E59">
-        <v>0.517795275590551</v>
+        <v>0.0945340041756512</v>
       </c>
       <c s="7" r="F59">
-        <v>0.388922610015175</v>
+        <v>0.0996608623785232</v>
       </c>
       <c s="7" r="G59">
-        <v>0.311642493139945</v>
+        <v>0.125769062377584</v>
       </c>
       <c s="3" t="str" r="H59"/>
       <c s="7" r="I59">
-        <v>0.21652761223679</v>
+        <v>0.15569968215789</v>
       </c>
       <c s="7" r="J59">
-        <v>0.121046739434649</v>
+        <v>0.191076507251346</v>
       </c>
     </row>
     <row r="60" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">05111</t>
+          <t xml:space="preserve">18111</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B60">
         <is>
-          <t xml:space="preserve">Poinsett, AR        </t>
+          <t xml:space="preserve">Newton, IN        </t>
         </is>
       </c>
       <c s="8" r="C60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="7" r="D60">
-        <v>0.764470918009811</v>
+        <v>0.0389590151160979</v>
       </c>
       <c s="7" r="E60">
-        <v>0.605695718654434</v>
+        <v>0.0825306219526698</v>
       </c>
       <c s="7" r="F60">
-        <v>0.510591210875751</v>
+        <v>0.0812419750204272</v>
       </c>
       <c s="7" r="G60">
-        <v>0.379932829554996</v>
+        <v>0.0960735171261487</v>
       </c>
       <c s="3" t="str" r="H60"/>
       <c s="7" r="I60">
-        <v>0.271150592216582</v>
+        <v>0.0876943400060969</v>
       </c>
       <c s="7" r="J60">
-        <v>0.185103011093502</v>
+        <v>0.117321805569518</v>
       </c>
     </row>
     <row r="61" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">05113</t>
+          <t xml:space="preserve">18113</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B61">
         <is>
-          <t xml:space="preserve">Polk, AR        </t>
+          <t xml:space="preserve">Noble, IN        </t>
         </is>
       </c>
       <c s="8" r="C61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="7" r="D61">
-        <v>0.650067294751009</v>
+        <v>0.0525053943898346</v>
       </c>
       <c s="7" r="E61">
-        <v>0.501127819548872</v>
+        <v>0.0735198763030575</v>
       </c>
       <c s="7" r="F61">
-        <v>0.375792857763489</v>
+        <v>0.0803421018530517</v>
       </c>
       <c s="7" r="G61">
-        <v>0.274416882636061</v>
+        <v>0.110807592631505</v>
       </c>
       <c s="3" t="str" r="H61"/>
       <c s="7" r="I61">
-        <v>0.173362262038074</v>
+        <v>0.126462938881664</v>
       </c>
       <c s="7" r="J61">
-        <v>0.115308297199971</v>
+        <v>0.16311431539842</v>
       </c>
     </row>
     <row r="62" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">05115</t>
+          <t xml:space="preserve">18115</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B62">
         <is>
-          <t xml:space="preserve">Pope, AR        </t>
+          <t xml:space="preserve">Ohio, IN        </t>
         </is>
       </c>
       <c s="8" r="C62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c s="7" r="D62">
-        <v>0.582067068378308</v>
+        <v>0.0382695507487521</v>
       </c>
       <c s="7" r="E62">
-        <v>0.424703968182229</v>
+        <v>0.0790082644628099</v>
       </c>
       <c s="7" r="F62">
-        <v>0.33507291964541</v>
+        <v>0.0601677755279144</v>
       </c>
       <c s="7" r="G62">
-        <v>0.225500772662332</v>
+        <v>0.116137566137566</v>
       </c>
       <c s="3" t="str" r="H62"/>
       <c s="7" r="I62">
-        <v>0.179577556045095</v>
+        <v>0.131241410902428</v>
       </c>
       <c s="7" r="J62">
-        <v>0.15756004500318</v>
+        <v>0.157298277425204</v>
       </c>
     </row>
     <row r="63" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">05117</t>
+          <t xml:space="preserve">18117</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B63">
         <is>
-          <t xml:space="preserve">Prairie, AR        </t>
+          <t xml:space="preserve">Orange, IN        </t>
         </is>
       </c>
       <c s="8" r="C63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c s="7" r="D63">
-        <v>0.711732037486984</v>
+        <v>0.0511185448463308</v>
       </c>
       <c s="7" r="E63">
-        <v>0.572374958595561</v>
+        <v>0.069944474296973</v>
       </c>
       <c s="7" r="F63">
-        <v>0.437299550994227</v>
+        <v>0.0604940346160309</v>
       </c>
       <c s="7" r="G63">
-        <v>0.317557251908397</v>
+        <v>0.101809954751131</v>
       </c>
       <c s="3" t="str" r="H63"/>
       <c s="7" r="I63">
-        <v>0.234269119070668</v>
+        <v>0.13278319579895</v>
       </c>
       <c s="7" r="J63">
-        <v>0.131618257261411</v>
+        <v>0.133376944323303</v>
       </c>
     </row>
     <row r="64" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A64">
         <is>
-          <t xml:space="preserve">05119</t>
+          <t xml:space="preserve">18119</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B64">
         <is>
-          <t xml:space="preserve">Pulaski, AR        </t>
+          <t xml:space="preserve">Owen, IN        </t>
         </is>
       </c>
       <c s="8" r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D64">
-        <v>0.414936367565197</v>
+        <v>0.0311874105865522</v>
       </c>
       <c s="7" r="E64">
-        <v>0.283076387965341</v>
+        <v>0.0704047217537943</v>
       </c>
       <c s="7" r="F64">
-        <v>0.209793721973094</v>
+        <v>0.071204376289122</v>
       </c>
       <c s="7" r="G64">
-        <v>0.156293844125788</v>
+        <v>0.0916991101223582</v>
       </c>
       <c s="3" t="str" r="H64"/>
       <c s="7" r="I64">
-        <v>0.108739666265914</v>
+        <v>0.100564288593309</v>
       </c>
       <c s="7" r="J64">
-        <v>0.0852286992866532</v>
+        <v>0.140126971660449</v>
       </c>
     </row>
     <row r="65" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A65">
         <is>
-          <t xml:space="preserve">05121</t>
+          <t xml:space="preserve">18121</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B65">
         <is>
-          <t xml:space="preserve">Randolph, AR        </t>
+          <t xml:space="preserve">Parke, IN        </t>
         </is>
       </c>
       <c s="8" r="C65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="7" r="D65">
-        <v>0.753006475485661</v>
+        <v>0.0613840588166647</v>
       </c>
       <c s="7" r="E65">
-        <v>0.577659888004716</v>
+        <v>0.0814896386024627</v>
       </c>
       <c s="7" r="F65">
-        <v>0.456206390011017</v>
+        <v>0.101203875893119</v>
       </c>
       <c s="7" r="G65">
-        <v>0.307610387482592</v>
+        <v>0.115801866958204</v>
       </c>
       <c s="3" t="str" r="H65"/>
       <c s="7" r="I65">
-        <v>0.198588464346556</v>
+        <v>0.143411172538988</v>
       </c>
       <c s="7" r="J65">
-        <v>0.14412346656114</v>
+        <v>0.129733459846459</v>
       </c>
     </row>
     <row r="66" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A66">
         <is>
-          <t xml:space="preserve">05123</t>
+          <t xml:space="preserve">18123</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B66">
         <is>
-          <t xml:space="preserve">St. Francis, AR        </t>
+          <t xml:space="preserve">Perry, IN        </t>
         </is>
       </c>
       <c s="8" r="C66">
         <v>6</v>
       </c>
       <c s="7" r="D66">
-        <v>0.694282221920413</v>
+        <v>0.0474965367108648</v>
       </c>
       <c s="7" r="E66">
-        <v>0.54949882440292</v>
+        <v>0.0626836434867777</v>
       </c>
       <c s="7" r="F66">
-        <v>0.449408514982285</v>
+        <v>0.067639149213593</v>
       </c>
       <c s="7" r="G66">
-        <v>0.348539041435096</v>
+        <v>0.0959635621171666</v>
       </c>
       <c s="3" t="str" r="H66"/>
       <c s="7" r="I66">
-        <v>0.235759076777151</v>
+        <v>0.101925752361426</v>
       </c>
       <c s="7" r="J66">
-        <v>0.176805513934672</v>
+        <v>0.155685557586837</v>
       </c>
     </row>
     <row r="67" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A67">
         <is>
-          <t xml:space="preserve">05125</t>
+          <t xml:space="preserve">18125</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B67">
         <is>
-          <t xml:space="preserve">Saline, AR        </t>
+          <t xml:space="preserve">Pike, IN        </t>
         </is>
       </c>
       <c s="8" r="C67">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c s="7" r="D67">
-        <v>0.590529663122329</v>
+        <v>0.0502283105022831</v>
       </c>
       <c s="7" r="E67">
-        <v>0.39813530341646</v>
+        <v>0.0631161336859822</v>
       </c>
       <c s="7" r="F67">
-        <v>0.271471046987717</v>
+        <v>0.084774055085251</v>
       </c>
       <c s="7" r="G67">
-        <v>0.176679331851746</v>
+        <v>0.0844281960470696</v>
       </c>
       <c s="3" t="str" r="H67"/>
       <c s="7" r="I67">
-        <v>0.110726737851384</v>
+        <v>0.0989693006760501</v>
       </c>
       <c s="7" r="J67">
-        <v>0.0819328226281674</v>
+        <v>0.141636846358075</v>
       </c>
     </row>
     <row r="68" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A68">
         <is>
-          <t xml:space="preserve">05127</t>
+          <t xml:space="preserve">18127</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B68">
         <is>
-          <t xml:space="preserve">Scott, AR        </t>
+          <t xml:space="preserve">Porter, IN        </t>
         </is>
       </c>
       <c s="8" r="C68">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c s="7" r="D68">
-        <v>0.726997578692494</v>
+        <v>0.107752489331437</v>
       </c>
       <c s="7" r="E68">
-        <v>0.575812873258129</v>
+        <v>0.14724796816927</v>
       </c>
       <c s="7" r="F68">
-        <v>0.461664190193165</v>
+        <v>0.185368916797488</v>
       </c>
       <c s="7" r="G68">
-        <v>0.346310040610559</v>
+        <v>0.225921534585336</v>
       </c>
       <c s="3" t="str" r="H68"/>
       <c s="7" r="I68">
-        <v>0.250304754164974</v>
+        <v>0.252491542887363</v>
       </c>
       <c s="7" r="J68">
-        <v>0.200404565814189</v>
+        <v>0.30250065186855</v>
       </c>
     </row>
     <row r="69" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A69">
         <is>
-          <t xml:space="preserve">05129</t>
+          <t xml:space="preserve">18129</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B69">
         <is>
-          <t xml:space="preserve">Searcy, AR        </t>
+          <t xml:space="preserve">Posey, IN        </t>
         </is>
       </c>
       <c s="8" r="C69">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c s="7" r="D69">
-        <v>0.76103500761035</v>
+        <v>0.0470716563181742</v>
       </c>
       <c s="7" r="E69">
-        <v>0.5843158270811</v>
+        <v>0.0971303887860354</v>
       </c>
       <c s="7" r="F69">
-        <v>0.474028400597907</v>
+        <v>0.110397868346152</v>
       </c>
       <c s="7" r="G69">
-        <v>0.31975138121547</v>
+        <v>0.147643030954671</v>
       </c>
       <c s="3" t="str" r="H69"/>
       <c s="7" r="I69">
-        <v>0.256418918918919</v>
+        <v>0.195633683016728</v>
       </c>
       <c s="7" r="J69">
-        <v>0.198474605650893</v>
+        <v>0.242495519713262</v>
       </c>
     </row>
     <row r="70" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">05131</t>
+          <t xml:space="preserve">18131</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B70">
         <is>
-          <t xml:space="preserve">Sebastian, AR        </t>
+          <t xml:space="preserve">Pulaski, IN        </t>
         </is>
       </c>
       <c s="8" r="C70">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c s="7" r="D70">
-        <v>0.500112233445567</v>
+        <v>0.0589677047289504</v>
       </c>
       <c s="7" r="E70">
-        <v>0.356269653393633</v>
+        <v>0.0801090625811478</v>
       </c>
       <c s="7" r="F70">
-        <v>0.283399928481475</v>
+        <v>0.0892901931276649</v>
       </c>
       <c s="7" r="G70">
-        <v>0.23424618972936</v>
+        <v>0.102566939588405</v>
       </c>
       <c s="3" t="str" r="H70"/>
       <c s="7" r="I70">
-        <v>0.176224903522056</v>
+        <v>0.142778572214278</v>
       </c>
       <c s="7" r="J70">
-        <v>0.154226823375623</v>
+        <v>0.130960608154803</v>
       </c>
     </row>
     <row r="71" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">05133</t>
+          <t xml:space="preserve">18133</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B71">
         <is>
-          <t xml:space="preserve">Sevier, AR        </t>
+          <t xml:space="preserve">Putnam, IN        </t>
         </is>
       </c>
       <c s="8" r="C71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c s="7" r="D71">
-        <v>0.617999696463803</v>
+        <v>0.0890676829698638</v>
       </c>
       <c s="7" r="E71">
-        <v>0.474751025190393</v>
+        <v>0.120956399437412</v>
       </c>
       <c s="7" r="F71">
-        <v>0.410050818746471</v>
+        <v>0.113359006345935</v>
       </c>
       <c s="7" r="G71">
-        <v>0.353988603988604</v>
+        <v>0.131090589270009</v>
       </c>
       <c s="3" t="str" r="H71"/>
       <c s="7" r="I71">
-        <v>0.337293982368724</v>
+        <v>0.165977793986547</v>
       </c>
       <c s="7" r="J71">
-        <v>0.264691259819032</v>
+        <v>0.177259570304537</v>
       </c>
     </row>
     <row r="72" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A72">
         <is>
-          <t xml:space="preserve">05135</t>
+          <t xml:space="preserve">18135</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B72">
         <is>
-          <t xml:space="preserve">Sharp, AR        </t>
+          <t xml:space="preserve">Randolph, IN        </t>
         </is>
       </c>
       <c s="8" r="C72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="7" r="D72">
-        <v>0.671995486176415</v>
+        <v>0.0451461699765635</v>
       </c>
       <c s="7" r="E72">
-        <v>0.462781838772779</v>
+        <v>0.0783368313574224</v>
       </c>
       <c s="7" r="F72">
-        <v>0.35506958250497</v>
+        <v>0.0857352774951961</v>
       </c>
       <c s="7" r="G72">
-        <v>0.270701155034976</v>
+        <v>0.0990715456034954</v>
       </c>
       <c s="3" t="str" r="H72"/>
       <c s="7" r="I72">
-        <v>0.155996465579565</v>
+        <v>0.121130400584302</v>
       </c>
       <c s="7" r="J72">
-        <v>0.177685288938691</v>
+        <v>0.162108461898083</v>
       </c>
     </row>
     <row r="73" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A73">
         <is>
-          <t xml:space="preserve">05137</t>
+          <t xml:space="preserve">18137</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B73">
         <is>
-          <t xml:space="preserve">Stone, AR        </t>
+          <t xml:space="preserve">Ripley, IN        </t>
         </is>
       </c>
       <c s="8" r="C73">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c s="7" r="D73">
-        <v>0.788968234425019</v>
+        <v>0.0417321459752052</v>
       </c>
       <c s="7" r="E73">
-        <v>0.580679218722506</v>
+        <v>0.0767233919815402</v>
       </c>
       <c s="7" r="F73">
-        <v>0.403610001479509</v>
+        <v>0.0981671123866675</v>
       </c>
       <c s="7" r="G73">
-        <v>0.319620642936322</v>
+        <v>0.115228754331356</v>
       </c>
       <c s="3" t="str" r="H73"/>
       <c s="7" r="I73">
-        <v>0.195618153364632</v>
+        <v>0.148921584137531</v>
       </c>
       <c s="7" r="J73">
-        <v>0.153710442165619</v>
+        <v>0.192150866462793</v>
       </c>
     </row>
     <row r="74" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">05139</t>
+          <t xml:space="preserve">18139</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B74">
         <is>
-          <t xml:space="preserve">Union, AR        </t>
+          <t xml:space="preserve">Rush, IN        </t>
         </is>
       </c>
       <c s="8" r="C74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="7" r="D74">
-        <v>0.534866074815995</v>
+        <v>0.0475799835931091</v>
       </c>
       <c s="7" r="E74">
-        <v>0.41994305856833</v>
+        <v>0.0750111756817166</v>
       </c>
       <c s="7" r="F74">
-        <v>0.341037017416065</v>
+        <v>0.0869870220975097</v>
       </c>
       <c s="7" r="G74">
-        <v>0.2548856132862</v>
+        <v>0.103078202995008</v>
       </c>
       <c s="3" t="str" r="H74"/>
       <c s="7" r="I74">
-        <v>0.179709116708053</v>
+        <v>0.138834371533407</v>
       </c>
       <c s="7" r="J74">
-        <v>0.136696015520072</v>
+        <v>0.163382238041497</v>
       </c>
     </row>
     <row r="75" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">05141</t>
+          <t xml:space="preserve">18141</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B75">
         <is>
-          <t xml:space="preserve">Van Buren, AR        </t>
+          <t xml:space="preserve">St. Joseph, IN        </t>
         </is>
       </c>
       <c s="8" r="C75">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c s="7" r="D75">
-        <v>0.708892780696634</v>
+        <v>0.0957902043493848</v>
       </c>
       <c s="7" r="E75">
-        <v>0.476332037502858</v>
+        <v>0.146014150776022</v>
       </c>
       <c s="7" r="F75">
-        <v>0.374470659407139</v>
+        <v>0.192232733111892</v>
       </c>
       <c s="7" r="G75">
-        <v>0.283657990001724</v>
+        <v>0.236288088642659</v>
       </c>
       <c s="3" t="str" r="H75"/>
       <c s="7" r="I75">
-        <v>0.18028691166989</v>
+        <v>0.264832430850285</v>
       </c>
       <c s="7" r="J75">
-        <v>0.149403747870528</v>
+        <v>0.321210551213029</v>
       </c>
     </row>
     <row r="76" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A76">
         <is>
-          <t xml:space="preserve">05143</t>
+          <t xml:space="preserve">18143</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B76">
         <is>
-          <t xml:space="preserve">Washington, AR        </t>
+          <t xml:space="preserve">Scott, IN        </t>
         </is>
       </c>
       <c s="8" r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="7" r="D76">
-        <v>0.50992749724592</v>
+        <v>0.0471299783179277</v>
       </c>
       <c s="7" r="E76">
-        <v>0.36227249470068</v>
+        <v>0.0530022891354112</v>
       </c>
       <c s="7" r="F76">
-        <v>0.267596339961288</v>
+        <v>0.0664624808575804</v>
       </c>
       <c s="7" r="G76">
-        <v>0.20487348301939</v>
+        <v>0.0882113821138211</v>
       </c>
       <c s="3" t="str" r="H76"/>
       <c s="7" r="I76">
-        <v>0.17641684883683</v>
+        <v>0.101755247330306</v>
       </c>
       <c s="7" r="J76">
-        <v>0.135028761731759</v>
+        <v>0.132890961262554</v>
       </c>
     </row>
     <row r="77" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A77">
         <is>
-          <t xml:space="preserve">05145</t>
+          <t xml:space="preserve">18145</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B77">
         <is>
-          <t xml:space="preserve">White, AR        </t>
+          <t xml:space="preserve">Shelby, IN        </t>
         </is>
       </c>
       <c s="8" r="C77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="7" r="D77">
-        <v>0.663052467150602</v>
+        <v>0.056243854473943</v>
       </c>
       <c s="7" r="E77">
-        <v>0.513971534954936</v>
+        <v>0.0853928680015636</v>
       </c>
       <c s="7" r="F77">
-        <v>0.373815165876777</v>
+        <v>0.0991596638655462</v>
       </c>
       <c s="7" r="G77">
-        <v>0.271231648019638</v>
+        <v>0.127438185601919</v>
       </c>
       <c s="3" t="str" r="H77"/>
       <c s="7" r="I77">
-        <v>0.174087329992842</v>
+        <v>0.154691349803556</v>
       </c>
       <c s="7" r="J77">
-        <v>0.142141902539246</v>
+        <v>0.186939615001446</v>
       </c>
     </row>
     <row r="78" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A78">
         <is>
-          <t xml:space="preserve">05147</t>
+          <t xml:space="preserve">18147</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B78">
         <is>
-          <t xml:space="preserve">Woodruff, AR        </t>
+          <t xml:space="preserve">Spencer, IN        </t>
         </is>
       </c>
       <c s="8" r="C78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c s="7" r="D78">
-        <v>0.736673089274245</v>
+        <v>0.0486260197509661</v>
       </c>
       <c s="7" r="E78">
-        <v>0.61625212420825</v>
+        <v>0.0840021401819155</v>
       </c>
       <c s="7" r="F78">
-        <v>0.512759844515802</v>
+        <v>0.0916140378927172</v>
       </c>
       <c s="7" r="G78">
-        <v>0.393631910426872</v>
+        <v>0.129790230524053</v>
       </c>
       <c s="3" t="str" r="H78"/>
       <c s="7" r="I78">
-        <v>0.255390702274975</v>
+        <v>0.152084476138234</v>
       </c>
       <c s="7" r="J78">
-        <v>0.175575933795571</v>
-      </c>
-    </row>
-    <row r="79" ht="20.6" customHeight="0">
+        <v>0.192209991532599</v>
+      </c>
+    </row>
+    <row r="79" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A79">
         <is>
-          <t xml:space="preserve">05149</t>
+          <t xml:space="preserve">18149</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B79">
         <is>
-          <t xml:space="preserve">Yell, AR        </t>
+          <t xml:space="preserve">Starke, IN        </t>
         </is>
       </c>
       <c s="8" r="C79">
         <v>6</v>
       </c>
       <c s="7" r="D79">
-        <v>0.657835333254129</v>
+        <v>0.0362122385747483</v>
       </c>
       <c s="7" r="E79">
-        <v>0.513150479053165</v>
+        <v>0.0650083445919097</v>
       </c>
       <c s="7" r="F79">
-        <v>0.427797368194719</v>
+        <v>0.0598877980364656</v>
       </c>
       <c s="7" r="G79">
-        <v>0.358957463943188</v>
+        <v>0.084107259646828</v>
       </c>
       <c s="3" t="str" r="H79"/>
       <c s="7" r="I79">
-        <v>0.277804692366254</v>
+        <v>0.117453486900392</v>
       </c>
       <c s="7" r="J79">
-        <v>0.225458468176915</v>
-      </c>
-    </row>
-    <row r="80" ht="0.05" customHeight="1"/>
-    <row r="81" ht="5.95" customHeight="1"/>
-    <row r="82" ht="222.75" customHeight="1">
-      <c s="9" t="inlineStr" r="A82">
+        <v>0.118841482404235</v>
+      </c>
+    </row>
+    <row r="80" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A80">
+        <is>
+          <t xml:space="preserve">18151</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B80">
+        <is>
+          <t xml:space="preserve">Steuben, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C80">
+        <v>7</v>
+      </c>
+      <c s="7" r="D80">
+        <v>0.0878085547390239</v>
+      </c>
+      <c s="7" r="E80">
+        <v>0.0974668444319697</v>
+      </c>
+      <c s="7" r="F80">
+        <v>0.124826147426982</v>
+      </c>
+      <c s="7" r="G80">
+        <v>0.155314123760038</v>
+      </c>
+      <c s="3" t="str" r="H80"/>
+      <c s="7" r="I80">
+        <v>0.197269323937459</v>
+      </c>
+      <c s="7" r="J80">
+        <v>0.229478477170201</v>
+      </c>
+    </row>
+    <row r="81" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A81">
+        <is>
+          <t xml:space="preserve">18153</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B81">
+        <is>
+          <t xml:space="preserve">Sullivan, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C81">
+        <v>3</v>
+      </c>
+      <c s="7" r="D81">
+        <v>0.0411173368490442</v>
+      </c>
+      <c s="7" r="E81">
+        <v>0.077845220030349</v>
+      </c>
+      <c s="7" r="F81">
+        <v>0.099825424535788</v>
+      </c>
+      <c s="7" r="G81">
+        <v>0.0938303341902314</v>
+      </c>
+      <c s="3" t="str" r="H81"/>
+      <c s="7" r="I81">
+        <v>0.133506286170425</v>
+      </c>
+      <c s="7" r="J81">
+        <v>0.12632987621278</v>
+      </c>
+    </row>
+    <row r="82" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A82">
+        <is>
+          <t xml:space="preserve">18155</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B82">
+        <is>
+          <t xml:space="preserve">Switzerland, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C82">
+        <v>8</v>
+      </c>
+      <c s="7" r="D82">
+        <v>0.0379273504273504</v>
+      </c>
+      <c s="7" r="E82">
+        <v>0.0561902541384938</v>
+      </c>
+      <c s="7" r="F82">
+        <v>0.0564307078763709</v>
+      </c>
+      <c s="7" r="G82">
+        <v>0.076243844455765</v>
+      </c>
+      <c s="3" t="str" r="H82"/>
+      <c s="7" r="I82">
+        <v>0.0930498073355216</v>
+      </c>
+      <c s="7" r="J82">
+        <v>0.0916234247590808</v>
+      </c>
+    </row>
+    <row r="83" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A83">
+        <is>
+          <t xml:space="preserve">18157</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B83">
+        <is>
+          <t xml:space="preserve">Tippecanoe, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C83">
+        <v>3</v>
+      </c>
+      <c s="7" r="D83">
+        <v>0.205986788597727</v>
+      </c>
+      <c s="7" r="E83">
+        <v>0.25523844844153</v>
+      </c>
+      <c s="7" r="F83">
+        <v>0.306834615607104</v>
+      </c>
+      <c s="7" r="G83">
+        <v>0.331568870368285</v>
+      </c>
+      <c s="3" t="str" r="H83"/>
+      <c s="7" r="I83">
+        <v>0.356981922421909</v>
+      </c>
+      <c s="7" r="J83">
+        <v>0.406083914732428</v>
+      </c>
+    </row>
+    <row r="84" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A84">
+        <is>
+          <t xml:space="preserve">18159</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B84">
+        <is>
+          <t xml:space="preserve">Tipton, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C84">
+        <v>6</v>
+      </c>
+      <c s="7" r="D84">
+        <v>0.0594144971373015</v>
+      </c>
+      <c s="7" r="E84">
+        <v>0.0822480464836706</v>
+      </c>
+      <c s="7" r="F84">
+        <v>0.0982779944819713</v>
+      </c>
+      <c s="7" r="G84">
+        <v>0.124477638481373</v>
+      </c>
+      <c s="3" t="str" r="H84"/>
+      <c s="7" r="I84">
+        <v>0.156406585540444</v>
+      </c>
+      <c s="7" r="J84">
+        <v>0.247667825132614</v>
+      </c>
+    </row>
+    <row r="85" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A85">
+        <is>
+          <t xml:space="preserve">18161</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B85">
+        <is>
+          <t xml:space="preserve">Union, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C85">
+        <v>1</v>
+      </c>
+      <c s="7" r="D85">
+        <v>0.0528523489932886</v>
+      </c>
+      <c s="7" r="E85">
+        <v>0.0897597977243995</v>
+      </c>
+      <c s="7" r="F85">
+        <v>0.084375710711849</v>
+      </c>
+      <c s="7" r="G85">
+        <v>0.110785953177258</v>
+      </c>
+      <c s="3" t="str" r="H85"/>
+      <c s="7" r="I85">
+        <v>0.182215164747916</v>
+      </c>
+      <c s="7" r="J85">
+        <v>0.198880092681985</v>
+      </c>
+    </row>
+    <row r="86" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A86">
+        <is>
+          <t xml:space="preserve">18163</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B86">
+        <is>
+          <t xml:space="preserve">Vanderburgh, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C86">
+        <v>2</v>
+      </c>
+      <c s="7" r="D86">
+        <v>0.089523789464816</v>
+      </c>
+      <c s="7" r="E86">
+        <v>0.125158537424664</v>
+      </c>
+      <c s="7" r="F86">
+        <v>0.159984251535933</v>
+      </c>
+      <c s="7" r="G86">
+        <v>0.193210789994473</v>
+      </c>
+      <c s="3" t="str" r="H86"/>
+      <c s="7" r="I86">
+        <v>0.219503584846982</v>
+      </c>
+      <c s="7" r="J86">
+        <v>0.272245693857654</v>
+      </c>
+    </row>
+    <row r="87" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A87">
+        <is>
+          <t xml:space="preserve">18165</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B87">
+        <is>
+          <t xml:space="preserve">Vermillion, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C87">
+        <v>3</v>
+      </c>
+      <c s="7" r="D87">
+        <v>0.0360957278481013</v>
+      </c>
+      <c s="7" r="E87">
+        <v>0.077831025914093</v>
+      </c>
+      <c s="7" r="F87">
+        <v>0.0776672937382424</v>
+      </c>
+      <c s="7" r="G87">
+        <v>0.112094653812445</v>
+      </c>
+      <c s="3" t="str" r="H87"/>
+      <c s="7" r="I87">
+        <v>0.139048799929147</v>
+      </c>
+      <c s="7" r="J87">
+        <v>0.165395571074152</v>
+      </c>
+    </row>
+    <row r="88" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A88">
+        <is>
+          <t xml:space="preserve">18167</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B88">
+        <is>
+          <t xml:space="preserve">Vigo, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C88">
+        <v>3</v>
+      </c>
+      <c s="7" r="D88">
+        <v>0.0997299729972997</v>
+      </c>
+      <c s="7" r="E88">
+        <v>0.162555531392712</v>
+      </c>
+      <c s="7" r="F88">
+        <v>0.180586634411854</v>
+      </c>
+      <c s="7" r="G88">
+        <v>0.21385316425338</v>
+      </c>
+      <c s="3" t="str" r="H88"/>
+      <c s="7" r="I88">
+        <v>0.21350117062173</v>
+      </c>
+      <c s="7" r="J88">
+        <v>0.25073068589958</v>
+      </c>
+    </row>
+    <row r="89" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A89">
+        <is>
+          <t xml:space="preserve">18169</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B89">
+        <is>
+          <t xml:space="preserve">Wabash, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C89">
+        <v>6</v>
+      </c>
+      <c s="7" r="D89">
+        <v>0.0689342645412379</v>
+      </c>
+      <c s="7" r="E89">
+        <v>0.118317477181629</v>
+      </c>
+      <c s="7" r="F89">
+        <v>0.116912031988368</v>
+      </c>
+      <c s="7" r="G89">
+        <v>0.137486809708055</v>
+      </c>
+      <c s="3" t="str" r="H89"/>
+      <c s="7" r="I89">
+        <v>0.160184933369595</v>
+      </c>
+      <c s="7" r="J89">
+        <v>0.198804818370036</v>
+      </c>
+    </row>
+    <row r="90" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A90">
+        <is>
+          <t xml:space="preserve">18171</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B90">
+        <is>
+          <t xml:space="preserve">Warren, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C90">
+        <v>8</v>
+      </c>
+      <c s="7" r="D90">
+        <v>0.0408079142621599</v>
+      </c>
+      <c s="7" r="E90">
+        <v>0.0825930825930826</v>
+      </c>
+      <c s="7" r="F90">
+        <v>0.0938367573570239</v>
+      </c>
+      <c s="7" r="G90">
+        <v>0.139872521246459</v>
+      </c>
+      <c s="3" t="str" r="H90"/>
+      <c s="7" r="I90">
+        <v>0.14038950042337</v>
+      </c>
+      <c s="7" r="J90">
+        <v>0.180298013245033</v>
+      </c>
+    </row>
+    <row r="91" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A91">
+        <is>
+          <t xml:space="preserve">18173</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B91">
+        <is>
+          <t xml:space="preserve">Warrick, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C91">
+        <v>2</v>
+      </c>
+      <c s="7" r="D91">
+        <v>0.0644437107956421</v>
+      </c>
+      <c s="7" r="E91">
+        <v>0.135817717206133</v>
+      </c>
+      <c s="7" r="F91">
+        <v>0.16169627749577</v>
+      </c>
+      <c s="7" r="G91">
+        <v>0.217928321425472</v>
+      </c>
+      <c s="3" t="str" r="H91"/>
+      <c s="7" r="I91">
+        <v>0.267882013529646</v>
+      </c>
+      <c s="7" r="J91">
+        <v>0.328210857520691</v>
+      </c>
+    </row>
+    <row r="92" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A92">
+        <is>
+          <t xml:space="preserve">18175</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B92">
+        <is>
+          <t xml:space="preserve">Washington, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C92">
+        <v>1</v>
+      </c>
+      <c s="7" r="D92">
+        <v>0.0384505838792367</v>
+      </c>
+      <c s="7" r="E92">
+        <v>0.059539052496799</v>
+      </c>
+      <c s="7" r="F92">
+        <v>0.0682500500366936</v>
+      </c>
+      <c s="7" r="G92">
+        <v>0.102334542157752</v>
+      </c>
+      <c s="3" t="str" r="H92"/>
+      <c s="7" r="I92">
+        <v>0.115622849277357</v>
+      </c>
+      <c s="7" r="J92">
+        <v>0.128393665158371</v>
+      </c>
+    </row>
+    <row r="93" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A93">
+        <is>
+          <t xml:space="preserve">18177</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B93">
+        <is>
+          <t xml:space="preserve">Wayne, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C93">
+        <v>5</v>
+      </c>
+      <c s="7" r="D93">
+        <v>0.0761053837342497</v>
+      </c>
+      <c s="7" r="E93">
+        <v>0.100997312365341</v>
+      </c>
+      <c s="7" r="F93">
+        <v>0.113469089972749</v>
+      </c>
+      <c s="7" r="G93">
+        <v>0.137377963737796</v>
+      </c>
+      <c s="3" t="str" r="H93"/>
+      <c s="7" r="I93">
+        <v>0.170904713797477</v>
+      </c>
+      <c s="7" r="J93">
+        <v>0.194446276630829</v>
+      </c>
+    </row>
+    <row r="94" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A94">
+        <is>
+          <t xml:space="preserve">18179</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B94">
+        <is>
+          <t xml:space="preserve">Wells, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C94">
+        <v>2</v>
+      </c>
+      <c s="7" r="D94">
+        <v>0.0623634093037777</v>
+      </c>
+      <c s="7" r="E94">
+        <v>0.0890668857397138</v>
+      </c>
+      <c s="7" r="F94">
+        <v>0.120822151744328</v>
+      </c>
+      <c s="7" r="G94">
+        <v>0.142736534023752</v>
+      </c>
+      <c s="3" t="str" r="H94"/>
+      <c s="7" r="I94">
+        <v>0.155609103078983</v>
+      </c>
+      <c s="7" r="J94">
+        <v>0.180354606197717</v>
+      </c>
+    </row>
+    <row r="95" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A95">
+        <is>
+          <t xml:space="preserve">18181</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B95">
+        <is>
+          <t xml:space="preserve">White, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C95">
+        <v>6</v>
+      </c>
+      <c s="7" r="D95">
+        <v>0.0501885211562631</v>
+      </c>
+      <c s="7" r="E95">
+        <v>0.0851851851851852</v>
+      </c>
+      <c s="7" r="F95">
+        <v>0.107376405963903</v>
+      </c>
+      <c s="7" r="G95">
+        <v>0.104640798621427</v>
+      </c>
+      <c s="3" t="str" r="H95"/>
+      <c s="7" r="I95">
+        <v>0.147434381650508</v>
+      </c>
+      <c s="7" r="J95">
+        <v>0.176106194690265</v>
+      </c>
+    </row>
+    <row r="96" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A96">
+        <is>
+          <t xml:space="preserve">18183</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B96">
+        <is>
+          <t xml:space="preserve">Whitley, IN        </t>
+        </is>
+      </c>
+      <c s="8" r="C96">
+        <v>2</v>
+      </c>
+      <c s="7" r="D96">
+        <v>0.0545571245186136</v>
+      </c>
+      <c s="7" r="E96">
+        <v>0.0721096543504172</v>
+      </c>
+      <c s="7" r="F96">
+        <v>0.087569808279118</v>
+      </c>
+      <c s="7" r="G96">
+        <v>0.132633158289572</v>
+      </c>
+      <c s="3" t="str" r="H96"/>
+      <c s="7" r="I96">
+        <v>0.159978645786992</v>
+      </c>
+      <c s="7" r="J96">
+        <v>0.230902265153752</v>
+      </c>
+    </row>
+    <row r="97" ht="6" customHeight="1"/>
+    <row r="98" ht="222.75" customHeight="1">
+      <c s="9" t="inlineStr" r="A98">
         <is>
           <r>
             <rPr>
@@ -3237,10 +3814,27 @@
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="G78:H78"/>
     <mergeCell ref="G79:H79"/>
-    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="A98:G98"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A82" r:id="rId7"/>
+    <hyperlink ref="A98" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
